--- a/2des/bcd/aula06/emprestimos.xlsx
+++ b/2des/bcd/aula06/emprestimos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25709"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\2des\bcd\aula06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C471D6-A5E7-4779-8A48-EECF028BAC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AF2ED0-8C7D-4ED6-BB8C-B269D93CAAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5C9BCC5-38AD-48D7-9683-A6B95C3EFFA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A5C9BCC5-38AD-48D7-9683-A6B95C3EFFA0}"/>
   </bookViews>
   <sheets>
     <sheet name="clientes" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="111">
   <si>
     <t>Ana</t>
   </si>
@@ -313,9 +313,6 @@
     <t>19-58463-3657</t>
   </si>
   <si>
-    <t>19-04684-6302</t>
-  </si>
-  <si>
     <t>19-46646-0493</t>
   </si>
   <si>
@@ -347,13 +344,37 @@
   </si>
   <si>
     <t>data</t>
+  </si>
+  <si>
+    <t>19-94684-6302</t>
+  </si>
+  <si>
+    <t>19-99984-6301</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>n_parcelas</t>
+  </si>
+  <si>
+    <t>taxa_juros</t>
+  </si>
+  <si>
+    <t>impostos</t>
+  </si>
+  <si>
+    <t>montante</t>
+  </si>
+  <si>
+    <t>v_parcela</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,6 +384,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -388,8 +417,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,10 +735,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA6AB64-D30A-4F0D-B33A-256B50C00D42}">
+  <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,10 +1115,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94E20DB-8508-4396-9BC6-D9D638EC2E8E}">
-  <dimension ref="A1:C30"/>
+  <sheetPr codeName="Planilha2"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,13 +1131,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>98</v>
-      </c>
-      <c r="C1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1112,7 +1145,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>89</v>
@@ -1123,7 +1156,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -1134,7 +1167,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
         <v>76</v>
@@ -1145,7 +1178,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
         <v>91</v>
@@ -1156,7 +1189,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
         <v>85</v>
@@ -1167,7 +1200,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
         <v>68</v>
@@ -1178,10 +1211,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1189,7 +1222,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
         <v>79</v>
@@ -1200,7 +1233,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
         <v>72</v>
@@ -1211,10 +1244,10 @@
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1222,7 +1255,7 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
         <v>78</v>
@@ -1233,7 +1266,7 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
         <v>83</v>
@@ -1244,7 +1277,7 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
         <v>82</v>
@@ -1255,10 +1288,10 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1266,54 +1299,54 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1321,43 +1354,43 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1365,21 +1398,21 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1387,21 +1420,21 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
         <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1409,26 +1442,37 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>100</v>
       </c>
       <c r="C30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
-    <sortCondition ref="A2:A30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B31">
+    <sortCondition ref="A2:A31"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1436,205 +1480,954 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B4BA80-1EB4-4FFF-9246-50041DD0C8B0}">
-  <dimension ref="A1:C23"/>
+  <sheetPr codeName="Planilha3"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <v>44329</v>
+      </c>
+      <c r="D2">
+        <v>5000</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>300</v>
+      </c>
+      <c r="H2">
+        <f>D2*(1+F2/100)^E2</f>
+        <v>5255.0502504999995</v>
+      </c>
+      <c r="I2">
+        <f>H2/E2</f>
+        <v>1051.0100500999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <v>44336</v>
+      </c>
+      <c r="D3">
+        <v>100000</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>800</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H30" si="0">D3*(1+F3/100)^E3</f>
+        <v>134885.01525493036</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I30" si="1">H3/E3</f>
+        <v>2248.0835875821726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>44336</v>
+      </c>
+      <c r="D4">
+        <v>35000</v>
+      </c>
+      <c r="E4">
+        <v>36</v>
+      </c>
+      <c r="F4">
+        <v>0.8</v>
+      </c>
+      <c r="G4">
+        <v>900</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>46628.044287397861</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>1295.2234524277183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>44343</v>
+      </c>
+      <c r="D5">
+        <v>110000</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>850</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>148373.51678042341</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>2472.8919463403899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>44343</v>
+      </c>
+      <c r="D6">
+        <v>85000</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>725</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>114652.26296669082</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>1910.8710494448469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>44350</v>
+      </c>
+      <c r="D7">
+        <v>25000</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>700</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>26275.251252499998</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>5255.0502504999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>44350</v>
+      </c>
+      <c r="D8">
+        <v>30000</v>
+      </c>
+      <c r="E8">
+        <v>36</v>
+      </c>
+      <c r="F8">
+        <v>0.8</v>
+      </c>
+      <c r="G8">
+        <v>800</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>39966.895103483883</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>1110.1915306523301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>44357</v>
+      </c>
+      <c r="D9">
+        <v>65000</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>625</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>87675.259915704737</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1461.2543319284123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>44357</v>
+      </c>
+      <c r="D10">
+        <v>85000</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>725</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>114652.26296669082</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>1910.8710494448469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>44357</v>
+      </c>
+      <c r="D11">
+        <v>95000</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>775</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>128140.76449218385</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>2135.6794082030642</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>44364</v>
+      </c>
+      <c r="D12">
+        <v>25000</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>700</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>26275.251252499998</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>5255.0502504999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>44364</v>
+      </c>
+      <c r="D13">
+        <v>140000</v>
+      </c>
+      <c r="E13">
+        <v>96</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>225979.97918451778</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>2353.9581165053937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <v>44371</v>
+      </c>
+      <c r="D14">
+        <v>55000</v>
+      </c>
+      <c r="E14">
+        <v>36</v>
+      </c>
+      <c r="F14">
+        <v>0.8</v>
+      </c>
+      <c r="G14">
+        <v>575</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>73272.641023053788</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>2035.3511395292719</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>44371</v>
+      </c>
+      <c r="D15">
+        <v>50000</v>
+      </c>
+      <c r="E15">
+        <v>36</v>
+      </c>
+      <c r="F15">
+        <v>0.8</v>
+      </c>
+      <c r="G15">
+        <v>550</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>66611.49183913981</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>1850.3192177538835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <v>44378</v>
+      </c>
+      <c r="D16">
+        <v>115000</v>
+      </c>
+      <c r="E16">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>875</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>155117.76754316993</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>2585.2961257194988</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>44378</v>
+      </c>
+      <c r="D17">
+        <v>95000</v>
+      </c>
+      <c r="E17">
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>775</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>128140.76449218385</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>2135.6794082030642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>44385</v>
+      </c>
+      <c r="D18">
+        <v>140000</v>
+      </c>
+      <c r="E18">
+        <v>96</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>1000</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>225979.97918451778</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>2353.9581165053937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>44385</v>
+      </c>
+      <c r="D19">
+        <v>25000</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>700</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>26275.251252499998</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>5255.0502504999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>44392</v>
+      </c>
+      <c r="D20">
+        <v>90000</v>
+      </c>
+      <c r="E20">
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>750</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>121396.51372943734</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>2023.2752288239558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>44392</v>
+      </c>
+      <c r="D21">
+        <v>140000</v>
+      </c>
+      <c r="E21">
+        <v>96</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>1000</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>225979.97918451778</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>2353.9581165053937</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>44413</v>
+      </c>
+      <c r="D22">
+        <v>80000</v>
+      </c>
+      <c r="E22">
+        <v>60</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>700</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>107908.01220394429</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>1798.4668700657382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
       </c>
+      <c r="C23" s="1">
+        <v>44441</v>
+      </c>
+      <c r="D23">
+        <v>25000</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>700</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>26275.251252499998</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>5255.0502504999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44469</v>
+      </c>
+      <c r="D24">
+        <v>40000</v>
+      </c>
+      <c r="E24">
+        <v>36</v>
+      </c>
+      <c r="F24">
+        <v>0.8</v>
+      </c>
+      <c r="G24">
+        <v>1000</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>53289.193471311839</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>1480.2553742031066</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1">
+        <v>44497</v>
+      </c>
+      <c r="D25">
+        <v>35000</v>
+      </c>
+      <c r="E25">
+        <v>36</v>
+      </c>
+      <c r="F25">
+        <v>0.8</v>
+      </c>
+      <c r="G25">
+        <v>900</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>46628.044287397861</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>1295.2234524277183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1">
+        <v>44525</v>
+      </c>
+      <c r="D26">
+        <v>25000</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>700</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>26275.251252499998</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>5255.0502504999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44553</v>
+      </c>
+      <c r="D27">
+        <v>90000</v>
+      </c>
+      <c r="E27">
+        <v>60</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>750</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>121396.51372943734</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>2023.2752288239558</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="1">
+        <v>44553</v>
+      </c>
+      <c r="D28">
+        <v>45000</v>
+      </c>
+      <c r="E28">
+        <v>36</v>
+      </c>
+      <c r="F28">
+        <v>0.8</v>
+      </c>
+      <c r="G28">
+        <v>1100</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>59950.342655225824</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>1665.2872959784952</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1">
+        <v>44581</v>
+      </c>
+      <c r="D29">
+        <v>125000</v>
+      </c>
+      <c r="E29">
+        <v>96</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>925</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>201767.83855760517</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>2101.7483183083873</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44581</v>
+      </c>
+      <c r="D30">
+        <v>125000</v>
+      </c>
+      <c r="E30">
+        <v>96</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>925</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>201767.83855760517</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>2101.7483183083873</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2des/bcd/aula06/emprestimos.xlsx
+++ b/2des/bcd/aula06/emprestimos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\2des\bcd\aula06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AF2ED0-8C7D-4ED6-BB8C-B269D93CAAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2E6299-EC41-4E6D-9812-B5D835EEB441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A5C9BCC5-38AD-48D7-9683-A6B95C3EFFA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5C9BCC5-38AD-48D7-9683-A6B95C3EFFA0}"/>
   </bookViews>
   <sheets>
     <sheet name="clientes" sheetId="1" r:id="rId1"/>
@@ -738,7 +738,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -1119,7 +1119,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,8 +1483,8 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,18 +1544,18 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G2">
         <v>300</v>
       </c>
       <c r="H2">
         <f>D2*(1+F2/100)^E2</f>
-        <v>5255.0502504999995</v>
+        <v>5307.2869196441598</v>
       </c>
       <c r="I2">
         <f>H2/E2</f>
-        <v>1051.0100500999999</v>
+        <v>1061.4573839288319</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1575,18 +1575,18 @@
         <v>60</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>800</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H30" si="0">D3*(1+F3/100)^E3</f>
-        <v>134885.01525493036</v>
+        <v>181669.66985640913</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I30" si="1">H3/E3</f>
-        <v>2248.0835875821726</v>
+        <v>3027.8278309401521</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1606,18 +1606,18 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G4">
         <v>900</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>46628.044287397861</v>
+        <v>51893.103607237383</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>1295.2234524277183</v>
+        <v>1441.4751002010385</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1637,18 +1637,18 @@
         <v>60</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G5">
         <v>850</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>148373.51678042341</v>
+        <v>188305.35013424238</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>2472.8919463403899</v>
+        <v>3138.422502237373</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1668,18 +1668,18 @@
         <v>60</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>725</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>114652.26296669082</v>
+        <v>154419.21937794777</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>1910.8710494448469</v>
+        <v>2573.6536562991296</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1699,18 +1699,18 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G7">
         <v>700</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>26275.251252499998</v>
+        <v>26536.4345982208</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>5255.0502504999995</v>
+        <v>5307.2869196441598</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1730,18 +1730,18 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G8">
         <v>800</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>39966.895103483883</v>
+        <v>44479.803091917755</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>1110.1915306523301</v>
+        <v>1235.5500858866044</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1761,18 +1761,18 @@
         <v>60</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>625</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>87675.259915704737</v>
+        <v>118085.28540666593</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>1461.2543319284123</v>
+        <v>1968.0880901110988</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1792,18 +1792,18 @@
         <v>60</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>725</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>114652.26296669082</v>
+        <v>154419.21937794777</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>1910.8710494448469</v>
+        <v>2573.6536562991296</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1823,18 +1823,18 @@
         <v>60</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>775</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>128140.76449218385</v>
+        <v>172586.18636358867</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>2135.6794082030642</v>
+        <v>2876.4364393931446</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1854,18 +1854,18 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G12">
         <v>700</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>26275.251252499998</v>
+        <v>26536.4345982208</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>5255.0502504999995</v>
+        <v>5307.2869196441598</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1885,18 +1885,18 @@
         <v>96</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G13">
         <v>1000</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>225979.97918451778</v>
+        <v>330887.22067138407</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>2353.9581165053937</v>
+        <v>3446.7418819935842</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1916,18 +1916,18 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G14">
         <v>575</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>73272.641023053788</v>
+        <v>81546.305668515895</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>2035.3511395292719</v>
+        <v>2265.1751574587747</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1947,18 +1947,18 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G15">
         <v>550</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>66611.49183913981</v>
+        <v>74133.005153196267</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>1850.3192177538835</v>
+        <v>2059.2501431443407</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1978,18 +1978,18 @@
         <v>60</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G16">
         <v>875</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>155117.76754316993</v>
+        <v>196864.6842312534</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>2585.2961257194988</v>
+        <v>3281.0780705208899</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2009,18 +2009,18 @@
         <v>60</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>775</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>128140.76449218385</v>
+        <v>172586.18636358867</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>2135.6794082030642</v>
+        <v>2876.4364393931446</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2040,18 +2040,18 @@
         <v>96</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G18">
         <v>1000</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>225979.97918451778</v>
+        <v>330887.22067138407</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>2353.9581165053937</v>
+        <v>3446.7418819935842</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2071,18 +2071,18 @@
         <v>5</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G19">
         <v>700</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>26275.251252499998</v>
+        <v>26536.4345982208</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>5255.0502504999995</v>
+        <v>5307.2869196441598</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2102,18 +2102,18 @@
         <v>60</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>750</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>121396.51372943734</v>
+        <v>163502.70287076823</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>2023.2752288239558</v>
+        <v>2725.0450478461371</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2133,18 +2133,18 @@
         <v>96</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G21">
         <v>1000</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>225979.97918451778</v>
+        <v>330887.22067138407</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>2353.9581165053937</v>
+        <v>3446.7418819935842</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2164,18 +2164,18 @@
         <v>60</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>700</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>107908.01220394429</v>
+        <v>145335.7358851273</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
-        <v>1798.4668700657382</v>
+        <v>2422.2622647521216</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2195,18 +2195,18 @@
         <v>5</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G23">
         <v>700</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>26275.251252499998</v>
+        <v>26536.4345982208</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>5255.0502504999995</v>
+        <v>5307.2869196441598</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2226,18 +2226,18 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G24">
         <v>1000</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>53289.193471311839</v>
+        <v>59306.404122557011</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
-        <v>1480.2553742031066</v>
+        <v>1647.4001145154725</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2257,18 +2257,18 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G25">
         <v>900</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>46628.044287397861</v>
+        <v>51893.103607237383</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
-        <v>1295.2234524277183</v>
+        <v>1441.4751002010385</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2288,18 +2288,18 @@
         <v>5</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G26">
         <v>700</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>26275.251252499998</v>
+        <v>26536.4345982208</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
-        <v>5255.0502504999995</v>
+        <v>5307.2869196441598</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2319,18 +2319,18 @@
         <v>60</v>
       </c>
       <c r="F27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>750</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>121396.51372943734</v>
+        <v>163502.70287076823</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
-        <v>2023.2752288239558</v>
+        <v>2725.0450478461371</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2350,18 +2350,18 @@
         <v>36</v>
       </c>
       <c r="F28">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G28">
         <v>1100</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>59950.342655225824</v>
+        <v>66719.704637876639</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
-        <v>1665.2872959784952</v>
+        <v>1853.3251288299066</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2381,18 +2381,18 @@
         <v>96</v>
       </c>
       <c r="F29">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G29">
         <v>925</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>201767.83855760517</v>
+        <v>295435.01845659292</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
-        <v>2101.7483183083873</v>
+        <v>3077.4481089228429</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2412,18 +2412,18 @@
         <v>96</v>
       </c>
       <c r="F30">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G30">
         <v>925</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>201767.83855760517</v>
+        <v>295435.01845659292</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
-        <v>2101.7483183083873</v>
+        <v>3077.4481089228429</v>
       </c>
     </row>
   </sheetData>
